--- a/dsa_python/dsa_sheet_vivek.xlsx
+++ b/dsa_python/dsa_sheet_vivek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vivek/work/GIT/DSA/dsa_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5643A56-7442-DC49-A113-4C914D679DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3F39DA-2D2C-7347-8737-5746E21CA155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="25220" windowHeight="18400" xr2:uid="{320CA288-F169-6146-8E75-29E8446DEC38}"/>
+    <workbookView xWindow="1480" yWindow="720" windowWidth="23740" windowHeight="18400" xr2:uid="{320CA288-F169-6146-8E75-29E8446DEC38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="161">
   <si>
     <t>Linked List</t>
   </si>
@@ -285,13 +285,247 @@
   </si>
   <si>
     <t>814. Binary Tree Pruning</t>
+  </si>
+  <si>
+    <t>701. Insert into a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>VVIMP</t>
+  </si>
+  <si>
+    <t>101. Symmetric Tree</t>
+  </si>
+  <si>
+    <t>111. Minimum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>solve for practice, dfs traversal</t>
+  </si>
+  <si>
+    <t>inorder</t>
+  </si>
+  <si>
+    <t>206. Reverse Linked List   (recursively)</t>
+  </si>
+  <si>
+    <t>142. Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>Iteratively</t>
+  </si>
+  <si>
+    <t>94. Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>110. Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>recursive height calculatino</t>
+  </si>
+  <si>
+    <t>662. Maximum Width of Binary Tree</t>
+  </si>
+  <si>
+    <t>modify the bfs</t>
+  </si>
+  <si>
+    <t>124. Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>application of binary tree height and binary tree width question</t>
+  </si>
+  <si>
+    <t>Strive: Top View of Binary Tree</t>
+  </si>
+  <si>
+    <t>application of vertical traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gfg: Root to Leaf Paths </t>
+  </si>
+  <si>
+    <t>236. Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>inorder traversal application</t>
+  </si>
+  <si>
+    <t>index manupalation and though process lagega</t>
+  </si>
+  <si>
+    <t>Check for Children Sum Property</t>
+  </si>
+  <si>
+    <t>863. All Nodes Distance K in Binary Tree</t>
+  </si>
+  <si>
+    <t>buidling mapping from child to parent, radial traversal</t>
+  </si>
+  <si>
+    <t>Striver: Minimum time taken to BURN the Binary Tree from a Node</t>
+  </si>
+  <si>
+    <t>similar to above problem- child to parent map and radial traversal</t>
+  </si>
+  <si>
+    <t>297. Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>BFS appication</t>
+  </si>
+  <si>
+    <t>Iteratively, Moris traversal</t>
+  </si>
+  <si>
+    <t>450. Delete Node in a BST</t>
+  </si>
+  <si>
+    <t>practice ke liye aacha h</t>
+  </si>
+  <si>
+    <t>98. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>1008. Construct Binary Search Tree from Preorder Traversal</t>
+  </si>
+  <si>
+    <t>application of build tree from preorder and inorder -&gt; 105. Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>173. Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>iterator to have inorder traversal</t>
+  </si>
+  <si>
+    <t>653. Two Sum IV - Input is a BST</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>DFS and BFS</t>
+  </si>
+  <si>
+    <t>547. Number of Provinces</t>
+  </si>
+  <si>
+    <t>994. Rotting Oranges</t>
+  </si>
+  <si>
+    <t>733. Flood Fill</t>
+  </si>
+  <si>
+    <t>Application of 994</t>
+  </si>
+  <si>
+    <t>Cycle Detection in unirected Graph (bfs)</t>
+  </si>
+  <si>
+    <t>cycle detection using bfs</t>
+  </si>
+  <si>
+    <t>542. 01 Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfs applicaation </t>
+  </si>
+  <si>
+    <t>130. Surrounded Regions</t>
+  </si>
+  <si>
+    <t>dfs from boundry</t>
+  </si>
+  <si>
+    <t>1020. Number of Enclaves</t>
+  </si>
+  <si>
+    <t>application of 733 and 130</t>
+  </si>
+  <si>
+    <t>127. Word Ladder</t>
+  </si>
+  <si>
+    <t>solve krle pehla question ha hard segnment me</t>
+  </si>
+  <si>
+    <t>extension of 173</t>
+  </si>
+  <si>
+    <t>Word ladder - 2</t>
+  </si>
+  <si>
+    <t>application of 127</t>
+  </si>
+  <si>
+    <t>cycel detection in ADG</t>
+  </si>
+  <si>
+    <t>extension of application of cycle deteion in undirectional graph</t>
+  </si>
+  <si>
+    <t>topological sort using dfs and queue</t>
+  </si>
+  <si>
+    <t>207. Course Schedule</t>
+  </si>
+  <si>
+    <t>topological sort application</t>
+  </si>
+  <si>
+    <t>802. Find Eventual Safe States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"" </t>
+  </si>
+  <si>
+    <t>Shortest path in DAG</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Djisktra's Algorithm (using min heap)</t>
+  </si>
+  <si>
+    <t>1976. Number of Ways to Arrive at Destination</t>
+  </si>
+  <si>
+    <t>modify the djkistra algo</t>
+  </si>
+  <si>
+    <t>minimum multiplication to reach the end (gfg)</t>
+  </si>
+  <si>
+    <t>must do</t>
+  </si>
+  <si>
+    <t>Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t>Floyd Warshal Algorithm</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>1334. Find the City With the Smallest Number of Neighbors at a Threshold Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floyd washer application </t>
+  </si>
+  <si>
+    <t>Prim's Algorithm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -306,6 +540,24 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="5">
@@ -347,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -356,6 +608,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -691,17 +946,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7F9071-CA7B-A04A-9D03-70F4C88C94E6}">
-  <dimension ref="A8:U85"/>
+  <dimension ref="A8:U156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -731,6 +986,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
@@ -948,7 +1225,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>37</v>
@@ -1063,57 +1340,60 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="2" t="s">
+    <row r="63" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>39</v>
+      <c r="E63" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1121,10 +1401,13 @@
         <v>29</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1132,10 +1415,13 @@
         <v>29</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1143,50 +1429,38 @@
         <v>29</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="72" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1194,10 +1468,10 @@
         <v>29</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1205,35 +1479,50 @@
         <v>29</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
     </row>
     <row r="76" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1241,13 +1530,10 @@
         <v>29</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1255,10 +1541,10 @@
         <v>29</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1266,13 +1552,10 @@
         <v>29</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1280,10 +1563,13 @@
         <v>29</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1291,20 +1577,38 @@
         <v>29</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
-        <v>79</v>
+        <v>11</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1312,13 +1616,10 @@
         <v>29</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1326,13 +1627,567 @@
         <v>29</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="C89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1368,29 +2223,66 @@
     <hyperlink ref="B60" r:id="rId29" display="https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers/" xr:uid="{27916DEE-29DE-2649-A564-2B8F77C9B5BC}"/>
     <hyperlink ref="B61" r:id="rId30" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{844E48D4-6A4E-084E-8F1E-8E6461685876}"/>
     <hyperlink ref="B62" r:id="rId31" display="https://leetcode.com/problems/average-of-levels-in-binary-tree/" xr:uid="{AA17EB0F-F395-7346-8029-50B01979C577}"/>
-    <hyperlink ref="B64" r:id="rId32" display="https://leetcode.com/problems/unique-binary-search-trees/" xr:uid="{5C19451C-CD95-2E48-A61B-476369B7D21B}"/>
-    <hyperlink ref="B65" r:id="rId33" display="https://leetcode.com/problems/recover-binary-search-tree/" xr:uid="{87306A81-E561-B84F-8B51-31322BB45D20}"/>
-    <hyperlink ref="B66" r:id="rId34" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{5FE5DF5B-B02D-5347-BFC0-51A74E2292A2}"/>
-    <hyperlink ref="B67" r:id="rId35" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{FC471594-9792-0844-BFB6-E595EF963DD6}"/>
-    <hyperlink ref="B68" r:id="rId36" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/" xr:uid="{D15F8924-6959-D041-888B-966C4A391A16}"/>
-    <hyperlink ref="B69" r:id="rId37" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/" xr:uid="{15F6BEA6-6461-9E47-8F88-D26063A7F710}"/>
-    <hyperlink ref="B70" r:id="rId38" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/" xr:uid="{F6E19D62-8EBF-194F-84B9-E229B14BD77A}"/>
-    <hyperlink ref="B71" r:id="rId39" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/" xr:uid="{90DDA8BF-8702-6346-8224-04D246C673B5}"/>
-    <hyperlink ref="B72" r:id="rId40" display="https://leetcode.com/problems/binary-tree-right-side-view/" xr:uid="{2706A4FF-D352-4440-BC07-B1BE3412E01C}"/>
-    <hyperlink ref="B73" r:id="rId41" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{BCA7184F-54FD-7A40-982E-225CB83F7539}"/>
-    <hyperlink ref="B74" r:id="rId42" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/" xr:uid="{CB6304FB-793A-1D4F-B872-C6239F26762E}"/>
-    <hyperlink ref="B75" r:id="rId43" display="https://leetcode.com/problems/serialize-and-deserialize-bst/" xr:uid="{E39881C5-64FF-6A4A-87DA-4713C836D089}"/>
-    <hyperlink ref="B76" r:id="rId44" display="https://leetcode.com/problems/house-robber-iii/" xr:uid="{59C3FE2D-8C1D-B249-B092-DA904021080D}"/>
+    <hyperlink ref="B68" r:id="rId32" display="https://leetcode.com/problems/unique-binary-search-trees/" xr:uid="{5C19451C-CD95-2E48-A61B-476369B7D21B}"/>
+    <hyperlink ref="B69" r:id="rId33" display="https://leetcode.com/problems/recover-binary-search-tree/" xr:uid="{87306A81-E561-B84F-8B51-31322BB45D20}"/>
+    <hyperlink ref="B70" r:id="rId34" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{5FE5DF5B-B02D-5347-BFC0-51A74E2292A2}"/>
+    <hyperlink ref="B71" r:id="rId35" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{FC471594-9792-0844-BFB6-E595EF963DD6}"/>
+    <hyperlink ref="B72" r:id="rId36" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/" xr:uid="{D15F8924-6959-D041-888B-966C4A391A16}"/>
+    <hyperlink ref="B73" r:id="rId37" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/" xr:uid="{15F6BEA6-6461-9E47-8F88-D26063A7F710}"/>
+    <hyperlink ref="B74" r:id="rId38" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/" xr:uid="{F6E19D62-8EBF-194F-84B9-E229B14BD77A}"/>
+    <hyperlink ref="B75" r:id="rId39" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/" xr:uid="{90DDA8BF-8702-6346-8224-04D246C673B5}"/>
+    <hyperlink ref="B76" r:id="rId40" display="https://leetcode.com/problems/binary-tree-right-side-view/" xr:uid="{2706A4FF-D352-4440-BC07-B1BE3412E01C}"/>
+    <hyperlink ref="B77" r:id="rId41" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{BCA7184F-54FD-7A40-982E-225CB83F7539}"/>
+    <hyperlink ref="B78" r:id="rId42" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/" xr:uid="{CB6304FB-793A-1D4F-B872-C6239F26762E}"/>
+    <hyperlink ref="B79" r:id="rId43" display="https://leetcode.com/problems/serialize-and-deserialize-bst/" xr:uid="{E39881C5-64FF-6A4A-87DA-4713C836D089}"/>
+    <hyperlink ref="B80" r:id="rId44" display="https://leetcode.com/problems/house-robber-iii/" xr:uid="{59C3FE2D-8C1D-B249-B092-DA904021080D}"/>
     <hyperlink ref="B47" r:id="rId45" display="https://leetcode.com/problems/path-sum/" xr:uid="{130A2F81-A0A5-164B-9624-BE60CA941A77}"/>
-    <hyperlink ref="B77" r:id="rId46" display="https://leetcode.com/problems/path-sum-ii/" xr:uid="{1A21D1CB-2780-6F4A-B0EE-A0A6F9E1C93F}"/>
-    <hyperlink ref="B78" r:id="rId47" display="https://leetcode.com/problems/most-frequent-subtree-sum/" xr:uid="{729F2E9F-E8C6-1B47-A882-DDB89AAA2AAD}"/>
-    <hyperlink ref="B79" r:id="rId48" display="https://leetcode.com/problems/construct-string-from-binary-tree/" xr:uid="{9C58FF85-8D37-3341-8287-24CF4A3F5C90}"/>
-    <hyperlink ref="B80" r:id="rId49" display="https://leetcode.com/problems/maximum-binary-tree/" xr:uid="{8D292E28-7344-694A-86A3-5A797901A107}"/>
-    <hyperlink ref="B81" r:id="rId50" display="https://leetcode.com/problems/find-bottom-left-tree-value/" xr:uid="{8D42B001-8314-4F4B-A576-B1AE3D2B852A}"/>
-    <hyperlink ref="B82" r:id="rId51" display="https://leetcode.com/problems/path-sum-iii/" xr:uid="{3426D98F-19E2-164C-90B6-CC9590BB96E5}"/>
-    <hyperlink ref="B83" r:id="rId52" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal/" xr:uid="{0B86CE62-127D-684A-9C29-9ED9C055D9DC}"/>
-    <hyperlink ref="B84" r:id="rId53" display="https://leetcode.com/problems/trim-a-binary-search-tree/" xr:uid="{5807A0D9-BAAE-C542-A3C2-9FFF912613CA}"/>
-    <hyperlink ref="B85" r:id="rId54" display="https://leetcode.com/problems/binary-tree-pruning/" xr:uid="{B1FEB32B-13CD-DC4E-8B8C-9D902A67AB56}"/>
+    <hyperlink ref="B81" r:id="rId46" display="https://leetcode.com/problems/path-sum-ii/" xr:uid="{1A21D1CB-2780-6F4A-B0EE-A0A6F9E1C93F}"/>
+    <hyperlink ref="B82" r:id="rId47" display="https://leetcode.com/problems/most-frequent-subtree-sum/" xr:uid="{729F2E9F-E8C6-1B47-A882-DDB89AAA2AAD}"/>
+    <hyperlink ref="B83" r:id="rId48" display="https://leetcode.com/problems/construct-string-from-binary-tree/" xr:uid="{9C58FF85-8D37-3341-8287-24CF4A3F5C90}"/>
+    <hyperlink ref="B84" r:id="rId49" display="https://leetcode.com/problems/maximum-binary-tree/" xr:uid="{8D292E28-7344-694A-86A3-5A797901A107}"/>
+    <hyperlink ref="B85" r:id="rId50" display="https://leetcode.com/problems/find-bottom-left-tree-value/" xr:uid="{8D42B001-8314-4F4B-A576-B1AE3D2B852A}"/>
+    <hyperlink ref="B86" r:id="rId51" display="https://leetcode.com/problems/path-sum-iii/" xr:uid="{3426D98F-19E2-164C-90B6-CC9590BB96E5}"/>
+    <hyperlink ref="B87" r:id="rId52" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal/" xr:uid="{0B86CE62-127D-684A-9C29-9ED9C055D9DC}"/>
+    <hyperlink ref="B88" r:id="rId53" display="https://leetcode.com/problems/trim-a-binary-search-tree/" xr:uid="{5807A0D9-BAAE-C542-A3C2-9FFF912613CA}"/>
+    <hyperlink ref="B89" r:id="rId54" display="https://leetcode.com/problems/binary-tree-pruning/" xr:uid="{B1FEB32B-13CD-DC4E-8B8C-9D902A67AB56}"/>
+    <hyperlink ref="B90" r:id="rId55" display="https://leetcode.com/problems/insert-into-a-binary-search-tree/" xr:uid="{7C7DEABF-50BA-7948-95D6-72851710E414}"/>
+    <hyperlink ref="B63" r:id="rId56" display="https://leetcode.com/problems/symmetric-tree/" xr:uid="{9E2BBB8B-4424-9948-B8C8-696414A0EEEE}"/>
+    <hyperlink ref="B64" r:id="rId57" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/" xr:uid="{4347B1A0-7662-0C46-B67F-54AAE1030EB4}"/>
+    <hyperlink ref="B11" r:id="rId58" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{E2C0D42A-73D3-F042-8F4C-C2CA445A43DA}"/>
+    <hyperlink ref="B12" r:id="rId59" display="https://leetcode.com/problems/linked-list-cycle-ii/" xr:uid="{09443F0B-03C6-F54C-87A7-59CB181FB9D3}"/>
+    <hyperlink ref="B65" r:id="rId60" display="https://leetcode.com/problems/binary-tree-preorder-traversal/" xr:uid="{F55C20D9-9A7B-B14C-8725-1CE126077F59}"/>
+    <hyperlink ref="B66" r:id="rId61" display="https://leetcode.com/problems/binary-tree-inorder-traversal/" xr:uid="{78A2DD3F-DE36-9940-B08C-B76880B5177D}"/>
+    <hyperlink ref="B91" r:id="rId62" display="https://leetcode.com/problems/balanced-binary-tree/" xr:uid="{BE8471A8-E483-4D4E-A012-1EA985978FF9}"/>
+    <hyperlink ref="B92" r:id="rId63" display="https://leetcode.com/problems/maximum-width-of-binary-tree/" xr:uid="{BBBEF50C-2A5E-BE46-A387-A33F8F9A1B1B}"/>
+    <hyperlink ref="B100" r:id="rId64" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/" xr:uid="{FC757C40-AC52-1645-A3FB-C623E91EAFBE}"/>
+    <hyperlink ref="B95" r:id="rId65" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C30D8CDE-6560-5A4A-8491-F230A1E57825}"/>
+    <hyperlink ref="B96" r:id="rId66" display="https://leetcode.com/problems/maximum-width-of-binary-tree/" xr:uid="{AF81E4B4-BDDD-4740-8D7C-B03AC4402BB8}"/>
+    <hyperlink ref="B97" r:id="rId67" display="https://takeuforward.org/data-structure/check-for-children-sum-property-in-a-binary-tree/" xr:uid="{885C8BA9-E125-CE44-A495-6324B802DAEA}"/>
+    <hyperlink ref="B101" r:id="rId68" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree/" xr:uid="{B7F28134-36F7-104A-9079-09CFE9C17D72}"/>
+    <hyperlink ref="B103" r:id="rId69" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{E9D4C0C0-A031-E84E-9567-C7F3A2467352}"/>
+    <hyperlink ref="B98" r:id="rId70" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{B13846E8-B975-3247-9D5C-EFF8E1004294}"/>
+    <hyperlink ref="B99" r:id="rId71" display="https://leetcode.com/problems/validate-binary-search-tree/" xr:uid="{78950825-2476-A64A-AEEF-A16729F8EDEB}"/>
+    <hyperlink ref="B112" r:id="rId72" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal/" xr:uid="{07F959D1-2860-9647-90D2-2D81A8373D79}"/>
+    <hyperlink ref="B113" r:id="rId73" display="https://leetcode.com/problems/binary-search-tree-iterator/" xr:uid="{BD469DFA-D1C6-BA4C-81BA-C14AABA4AA0C}"/>
+    <hyperlink ref="B116" r:id="rId74" display="https://leetcode.com/problems/two-sum-iv-input-is-a-bst/" xr:uid="{83B76D30-EA27-1942-B05B-0CE9113C780C}"/>
+    <hyperlink ref="B133" r:id="rId75" display="https://leetcode.com/problems/number-of-provinces/" xr:uid="{2AB4E754-FD51-3845-B0EE-D283855C22BF}"/>
+    <hyperlink ref="B134" r:id="rId76" display="https://leetcode.com/problems/rotting-oranges/" xr:uid="{BC7ADE19-2EF3-3B48-8C2D-55DD8F224D1F}"/>
+    <hyperlink ref="B135" r:id="rId77" display="https://leetcode.com/problems/flood-fill/" xr:uid="{9DD7319C-7EBC-9347-98CB-A37FE18BAA24}"/>
+    <hyperlink ref="B136" r:id="rId78" display="https://takeuforward.org/data-structure/detect-cycle-in-an-undirected-graph-using-bfs/" xr:uid="{0AA1CAB0-5391-F44A-9A13-BE5B2E36B586}"/>
+    <hyperlink ref="B137" r:id="rId79" display="https://leetcode.com/problems/01-matrix/" xr:uid="{4832CD3B-71D3-E04E-9533-AAC9C8B1F0C1}"/>
+    <hyperlink ref="B138" r:id="rId80" display="https://leetcode.com/problems/surrounded-regions/" xr:uid="{7F579176-7F3E-1546-9CE0-46614D03616C}"/>
+    <hyperlink ref="B139" r:id="rId81" display="https://leetcode.com/problems/number-of-enclaves/" xr:uid="{A25CF575-16CB-1E48-B800-37BE4F679C32}"/>
+    <hyperlink ref="B152" r:id="rId82" display="https://leetcode.com/problems/word-ladder/" xr:uid="{A38EE1C5-79AA-A143-BF63-E8C875CD07BA}"/>
+    <hyperlink ref="B140" r:id="rId83" display="https://takeuforward.org/graph/g-30-word-ladder-ii/" xr:uid="{6839C7B4-0B6B-2A43-A8C0-59E2F494CF22}"/>
+    <hyperlink ref="B145" r:id="rId84" display="https://takeuforward.org/data-structure/dijkstras-algorithm-using-set-g-33/" xr:uid="{51659E55-58DA-BA45-A1D0-607DF18BB939}"/>
+    <hyperlink ref="B147" r:id="rId85" display="https://takeuforward.org/data-structure/bellman-ford-algorithm-g-41/" xr:uid="{311B1B3F-7114-6E42-96D9-AE141643014C}"/>
+    <hyperlink ref="B148" r:id="rId86" display="https://takeuforward.org/data-structure/floyd-warshall-algorithm-g-42/" xr:uid="{6F36F9B2-BF21-7B41-AB88-91918E446EDC}"/>
+    <hyperlink ref="B155" r:id="rId87" display="https://leetcode.com/problems/number-of-ways-to-arrive-at-destination/" xr:uid="{D39A46FF-CF14-2746-A4D8-E48B63922A8F}"/>
+    <hyperlink ref="B154" r:id="rId88" display="https://leetcode.com/problems/find-eventual-safe-states/" xr:uid="{7C6CC2A0-BBD4-8540-876E-6868001C6046}"/>
+    <hyperlink ref="B153" r:id="rId89" display="https://leetcode.com/problems/course-schedule/" xr:uid="{B3072B3C-0BF7-5046-A132-E4A6BB0EC526}"/>
+    <hyperlink ref="B156" r:id="rId90" display="https://leetcode.com/problems/find-the-city-with-the-smallest-number-of-neighbors-at-a-threshold-distance/" xr:uid="{F2FF54EB-76A0-BB48-BC28-0805A26E46DF}"/>
+    <hyperlink ref="B149" r:id="rId91" display="https://takeuforward.org/data-structure/prims-algorithm-minimum-spanning-tree-c-and-java-g-45/" xr:uid="{04A63F77-9767-314E-99F5-7FA61CB73745}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dsa_python/dsa_sheet_vivek.xlsx
+++ b/dsa_python/dsa_sheet_vivek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vivek/work/GIT/DSA/dsa_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3F39DA-2D2C-7347-8737-5746E21CA155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C573DE-C9B4-CB46-823E-DF4193820AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="720" windowWidth="23740" windowHeight="18400" xr2:uid="{320CA288-F169-6146-8E75-29E8446DEC38}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="207">
   <si>
     <t>Linked List</t>
   </si>
@@ -519,6 +519,144 @@
   </si>
   <si>
     <t>Prim's Algorithm</t>
+  </si>
+  <si>
+    <t>Kruskal's Algorithm</t>
+  </si>
+  <si>
+    <t>1319. Number of Operations to Make Network Connected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disjoint set question </t>
+  </si>
+  <si>
+    <t>947. Most Stones Removed with Same Row or Column</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>721. Accounts Merge</t>
+  </si>
+  <si>
+    <t>Number Of Islands</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>disjoin set application</t>
+  </si>
+  <si>
+    <t>827. Making A Large Island</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>8. String to Integer (atoi)</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>1922. Count Good Numbers</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>50. Pow(x, n)</t>
+  </si>
+  <si>
+    <t>70. Climbing Stairs</t>
+  </si>
+  <si>
+    <t>concept builiding (momoization)</t>
+  </si>
+  <si>
+    <t>Geek Jump gfg(https://www.geeksforgeeks.org/problems/geek-jump/1?utm_source=youtube&amp;utm_medium=collab_striver_ytdescription&amp;utm_campaign=geek-jump)</t>
+  </si>
+  <si>
+    <t>Frog Jump with k distances(DP-4) (follow up to geek jump)</t>
+  </si>
+  <si>
+    <t>198. House Robber</t>
+  </si>
+  <si>
+    <t>pick/ not pick with memoization</t>
+  </si>
+  <si>
+    <t>213. House Robber II</t>
+  </si>
+  <si>
+    <t>Ninja's Training (DP 7)</t>
+  </si>
+  <si>
+    <t>good concept builder medium level</t>
+  </si>
+  <si>
+    <t>64. Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>120. Triangle</t>
+  </si>
+  <si>
+    <t>very important, build ulta recursive stack and ulta tabulation</t>
+  </si>
+  <si>
+    <t>3-d DP : Ninja and his friends (DP-13)</t>
+  </si>
+  <si>
+    <t>good question on 3d dp</t>
+  </si>
+  <si>
+    <t>Subset sum equal to target (DP- 14)</t>
+  </si>
+  <si>
+    <t>first q on substrings</t>
+  </si>
+  <si>
+    <t>2035. Partition Array Into Two Arrays to Minimize Sum Difference</t>
+  </si>
+  <si>
+    <t>********</t>
+  </si>
+  <si>
+    <t>Count Subsets with Sum K (DP - 17)</t>
+  </si>
+  <si>
+    <t>322. Coin Change</t>
+  </si>
+  <si>
+    <t>uniques approach for recursion with DP</t>
+  </si>
+  <si>
+    <t>494. Target Sum</t>
+  </si>
+  <si>
+    <t>application of  dp17 and dp14</t>
+  </si>
+  <si>
+    <t>518. Coin Change II</t>
+  </si>
+  <si>
+    <t>application of 322.coint change</t>
+  </si>
+  <si>
+    <t>Unbounded Knapsack (DP - 23)</t>
+  </si>
+  <si>
+    <t>knapsack</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array II</t>
   </si>
 </sst>
 </file>
@@ -560,7 +698,7 @@
       <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +723,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4DA72E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -599,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -611,6 +755,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -618,6 +764,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4DA72E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -946,16 +1097,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7F9071-CA7B-A04A-9D03-70F4C88C94E6}">
-  <dimension ref="A8:U156"/>
+  <dimension ref="A8:U209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="136.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1191,7 +1342,7 @@
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2123,71 +2274,420 @@
         <v>157</v>
       </c>
     </row>
-    <row r="152" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
+    <row r="150" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B159" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E152" s="4" t="s">
+      <c r="C159" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E159" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="153" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+    <row r="160" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B160" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E153" s="4" t="s">
+      <c r="C160" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E160" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
+    <row r="161" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B161" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E154" s="4" t="s">
+      <c r="C161" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E161" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
+    <row r="162" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B162" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E155" s="4" t="s">
+      <c r="C162" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E162" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="5" t="s">
+    <row r="163" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E156" s="4" t="s">
+      <c r="C163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="4" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2273,16 +2773,40 @@
     <hyperlink ref="B137" r:id="rId79" display="https://leetcode.com/problems/01-matrix/" xr:uid="{4832CD3B-71D3-E04E-9533-AAC9C8B1F0C1}"/>
     <hyperlink ref="B138" r:id="rId80" display="https://leetcode.com/problems/surrounded-regions/" xr:uid="{7F579176-7F3E-1546-9CE0-46614D03616C}"/>
     <hyperlink ref="B139" r:id="rId81" display="https://leetcode.com/problems/number-of-enclaves/" xr:uid="{A25CF575-16CB-1E48-B800-37BE4F679C32}"/>
-    <hyperlink ref="B152" r:id="rId82" display="https://leetcode.com/problems/word-ladder/" xr:uid="{A38EE1C5-79AA-A143-BF63-E8C875CD07BA}"/>
+    <hyperlink ref="B159" r:id="rId82" display="https://leetcode.com/problems/word-ladder/" xr:uid="{A38EE1C5-79AA-A143-BF63-E8C875CD07BA}"/>
     <hyperlink ref="B140" r:id="rId83" display="https://takeuforward.org/graph/g-30-word-ladder-ii/" xr:uid="{6839C7B4-0B6B-2A43-A8C0-59E2F494CF22}"/>
     <hyperlink ref="B145" r:id="rId84" display="https://takeuforward.org/data-structure/dijkstras-algorithm-using-set-g-33/" xr:uid="{51659E55-58DA-BA45-A1D0-607DF18BB939}"/>
     <hyperlink ref="B147" r:id="rId85" display="https://takeuforward.org/data-structure/bellman-ford-algorithm-g-41/" xr:uid="{311B1B3F-7114-6E42-96D9-AE141643014C}"/>
     <hyperlink ref="B148" r:id="rId86" display="https://takeuforward.org/data-structure/floyd-warshall-algorithm-g-42/" xr:uid="{6F36F9B2-BF21-7B41-AB88-91918E446EDC}"/>
-    <hyperlink ref="B155" r:id="rId87" display="https://leetcode.com/problems/number-of-ways-to-arrive-at-destination/" xr:uid="{D39A46FF-CF14-2746-A4D8-E48B63922A8F}"/>
-    <hyperlink ref="B154" r:id="rId88" display="https://leetcode.com/problems/find-eventual-safe-states/" xr:uid="{7C6CC2A0-BBD4-8540-876E-6868001C6046}"/>
-    <hyperlink ref="B153" r:id="rId89" display="https://leetcode.com/problems/course-schedule/" xr:uid="{B3072B3C-0BF7-5046-A132-E4A6BB0EC526}"/>
-    <hyperlink ref="B156" r:id="rId90" display="https://leetcode.com/problems/find-the-city-with-the-smallest-number-of-neighbors-at-a-threshold-distance/" xr:uid="{F2FF54EB-76A0-BB48-BC28-0805A26E46DF}"/>
-    <hyperlink ref="B149" r:id="rId91" display="https://takeuforward.org/data-structure/prims-algorithm-minimum-spanning-tree-c-and-java-g-45/" xr:uid="{04A63F77-9767-314E-99F5-7FA61CB73745}"/>
+    <hyperlink ref="B163" r:id="rId87" display="https://leetcode.com/problems/find-the-city-with-the-smallest-number-of-neighbors-at-a-threshold-distance/" xr:uid="{F2FF54EB-76A0-BB48-BC28-0805A26E46DF}"/>
+    <hyperlink ref="B149" r:id="rId88" display="https://takeuforward.org/data-structure/prims-algorithm-minimum-spanning-tree-c-and-java-g-45/" xr:uid="{04A63F77-9767-314E-99F5-7FA61CB73745}"/>
+    <hyperlink ref="B150" r:id="rId89" display="https://takeuforward.org/data-structure/kruskals-algorithm-minimum-spanning-tree-g-47/" xr:uid="{6252353D-698A-FD42-935E-03B4F980C75A}"/>
+    <hyperlink ref="B151" r:id="rId90" display="https://leetcode.com/problems/number-of-operations-to-make-network-connected/" xr:uid="{40114E2B-7040-2E4E-B7D9-943D1D90A919}"/>
+    <hyperlink ref="B160" r:id="rId91" display="https://leetcode.com/problems/course-schedule/" xr:uid="{B3072B3C-0BF7-5046-A132-E4A6BB0EC526}"/>
+    <hyperlink ref="B161" r:id="rId92" display="https://leetcode.com/problems/find-eventual-safe-states/" xr:uid="{7C6CC2A0-BBD4-8540-876E-6868001C6046}"/>
+    <hyperlink ref="B162" r:id="rId93" display="https://leetcode.com/problems/number-of-ways-to-arrive-at-destination/" xr:uid="{D39A46FF-CF14-2746-A4D8-E48B63922A8F}"/>
+    <hyperlink ref="B152" r:id="rId94" display="https://leetcode.com/problems/most-stones-removed-with-same-row-or-column/" xr:uid="{536A6A10-C174-9A43-9C61-C150D496D57A}"/>
+    <hyperlink ref="B153" r:id="rId95" display="https://leetcode.com/problems/accounts-merge/" xr:uid="{D7CDA40F-EAD8-9F41-A86D-DF4FFFA35493}"/>
+    <hyperlink ref="B165" r:id="rId96" display="https://leetcode.com/problems/making-a-large-island/" xr:uid="{DB0E32E5-80DF-5247-9C7F-E0D836D9A0BE}"/>
+    <hyperlink ref="B171" r:id="rId97" display="https://leetcode.com/problems/string-to-integer-atoi/" xr:uid="{01822B62-AE13-0442-AB10-2EB20F600648}"/>
+    <hyperlink ref="B192" r:id="rId98" display="https://leetcode.com/problems/count-good-numbers/" xr:uid="{0865171A-B202-924B-975B-AF8C970F5F02}"/>
+    <hyperlink ref="B191" r:id="rId99" display="https://leetcode.com/problems/powx-n/" xr:uid="{B1BF3624-ECE5-C145-AEEF-F1F7C4D3F139}"/>
+    <hyperlink ref="B172" r:id="rId100" display="https://leetcode.com/problems/climbing-stairs/" xr:uid="{057CA770-3B9E-7944-ABF6-5B4488A25418}"/>
+    <hyperlink ref="B174" r:id="rId101" display="https://takeuforward.org/data-structure/dynamic-programming-frog-jump-with-k-distances-dp-4/" xr:uid="{0918A4D6-47B4-A14E-BE01-28654F6A5DCF}"/>
+    <hyperlink ref="B175" r:id="rId102" display="https://leetcode.com/problems/house-robber/" xr:uid="{EBF6EB3F-DD37-A349-9470-5CC59B52FEAB}"/>
+    <hyperlink ref="B176" r:id="rId103" display="https://leetcode.com/problems/house-robber-ii/" xr:uid="{AD98DA38-F819-C34F-A905-40AE7D3F7F4B}"/>
+    <hyperlink ref="B177" r:id="rId104" display="https://takeuforward.org/data-structure/dynamic-programming-ninjas-training-dp-7/" xr:uid="{D42CE215-8C7D-ED4E-A2BB-E8777F5FD8C3}"/>
+    <hyperlink ref="B178" r:id="rId105" display="https://leetcode.com/problems/minimum-path-sum/" xr:uid="{3953042F-03ED-B047-9EE0-03AA3A7DB314}"/>
+    <hyperlink ref="B179" r:id="rId106" display="https://leetcode.com/problems/triangle/" xr:uid="{5564E700-DD6A-414D-91BC-05C2E40644D2}"/>
+    <hyperlink ref="B187" r:id="rId107" display="https://takeuforward.org/data-structure/3-d-dp-ninja-and-his-friends-dp-13/" xr:uid="{01E3FD1F-2189-D542-BE9C-E402B9EDA818}"/>
+    <hyperlink ref="B180" r:id="rId108" display="https://takeuforward.org/data-structure/subset-sum-equal-to-target-dp-14/" xr:uid="{B1085595-E8D0-CD4C-8C43-0ACC134C2ED1}"/>
+    <hyperlink ref="B188" r:id="rId109" display="https://leetcode.com/problems/partition-array-into-two-arrays-to-minimize-sum-difference/" xr:uid="{7326E2D0-69E4-A946-91E3-E08649CA6F08}"/>
+    <hyperlink ref="B181" r:id="rId110" display="https://takeuforward.org/data-structure/count-subsets-with-sum-k-dp-17/" xr:uid="{F340A545-6F81-104C-8506-06A161FF1E33}"/>
+    <hyperlink ref="B182" r:id="rId111" display="https://leetcode.com/problems/coin-change/" xr:uid="{5EF1E557-2F54-8842-8F17-F1A5724D7749}"/>
+    <hyperlink ref="B183" r:id="rId112" display="https://leetcode.com/problems/target-sum/" xr:uid="{3D3BC65B-ACE4-3340-BFFA-6D615906E6CD}"/>
+    <hyperlink ref="B184" r:id="rId113" display="https://leetcode.com/problems/coin-change-ii/" xr:uid="{B358F8AE-F0B2-2743-9FE4-013B11C5345E}"/>
+    <hyperlink ref="B185" r:id="rId114" display="https://takeuforward.org/data-structure/unbounded-knapsack-dp-23/" xr:uid="{51D4AF01-9208-2E4A-991C-F3C2E04F9490}"/>
+    <hyperlink ref="B209" r:id="rId115" display="https://takeuforward.org/arrays/search-element-in-rotated-sorted-array-ii/" xr:uid="{74A670C9-F84D-7D49-9001-0EB8A8F9634F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dsa_python/dsa_sheet_vivek.xlsx
+++ b/dsa_python/dsa_sheet_vivek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vivek/work/GIT/DSA/dsa_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C573DE-C9B4-CB46-823E-DF4193820AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8D913D-47C6-3D43-A8A3-916AFE4521F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="720" windowWidth="23740" windowHeight="18400" xr2:uid="{320CA288-F169-6146-8E75-29E8446DEC38}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="238">
   <si>
     <t>Linked List</t>
   </si>
@@ -657,6 +657,99 @@
   </si>
   <si>
     <t>Search in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>DP On strings</t>
+  </si>
+  <si>
+    <t>1143. Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>base building</t>
+  </si>
+  <si>
+    <t>Print Longest Common Subsequence | (DP - 26)</t>
+  </si>
+  <si>
+    <t>DP On string</t>
+  </si>
+  <si>
+    <t>aplication of above</t>
+  </si>
+  <si>
+    <t>1092. Shortest Common Supersequence </t>
+  </si>
+  <si>
+    <t>115. Distinct Subsequences</t>
+  </si>
+  <si>
+    <t>72. Edit Distance</t>
+  </si>
+  <si>
+    <t>DP on stocks</t>
+  </si>
+  <si>
+    <t>122. Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>44. Wildcard Matching</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>vvimp</t>
+  </si>
+  <si>
+    <t>DP on LIS</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence |(DP-41)</t>
+  </si>
+  <si>
+    <t>Printing Longest Increasing Subsequence|(DP-42)</t>
+  </si>
+  <si>
+    <t>DP on LIS number</t>
+  </si>
+  <si>
+    <t>368. Largest Divisible Subset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good intution </t>
+  </si>
+  <si>
+    <t>1048. Longest String Chain</t>
+  </si>
+  <si>
+    <t>673. Number of Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication|(DP-48)</t>
+  </si>
+  <si>
+    <t>DP on partition</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Cut the Stick|(DP-50)</t>
+  </si>
+  <si>
+    <t>Burst Balloons|(DP-51)</t>
+  </si>
+  <si>
+    <t>bottom up for partition --- vvimp</t>
+  </si>
+  <si>
+    <t>Evaluate Boolean Expression to True|(DP-52)</t>
+  </si>
+  <si>
+    <t>20 / 2 / 25</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning - II|(DP-53)</t>
+  </si>
+  <si>
+    <t>21/2/25</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7F9071-CA7B-A04A-9D03-70F4C88C94E6}">
-  <dimension ref="A8:U209"/>
+  <dimension ref="A8:U227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2626,67 +2719,278 @@
         <v>204</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>176</v>
+    <row r="187" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="192" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B222" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E192" s="2" t="s">
+      <c r="C223" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="209" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
+    <row r="227" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B227" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C227" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2789,8 +3093,8 @@
     <hyperlink ref="B153" r:id="rId95" display="https://leetcode.com/problems/accounts-merge/" xr:uid="{D7CDA40F-EAD8-9F41-A86D-DF4FFFA35493}"/>
     <hyperlink ref="B165" r:id="rId96" display="https://leetcode.com/problems/making-a-large-island/" xr:uid="{DB0E32E5-80DF-5247-9C7F-E0D836D9A0BE}"/>
     <hyperlink ref="B171" r:id="rId97" display="https://leetcode.com/problems/string-to-integer-atoi/" xr:uid="{01822B62-AE13-0442-AB10-2EB20F600648}"/>
-    <hyperlink ref="B192" r:id="rId98" display="https://leetcode.com/problems/count-good-numbers/" xr:uid="{0865171A-B202-924B-975B-AF8C970F5F02}"/>
-    <hyperlink ref="B191" r:id="rId99" display="https://leetcode.com/problems/powx-n/" xr:uid="{B1BF3624-ECE5-C145-AEEF-F1F7C4D3F139}"/>
+    <hyperlink ref="B223" r:id="rId98" display="https://leetcode.com/problems/count-good-numbers/" xr:uid="{0865171A-B202-924B-975B-AF8C970F5F02}"/>
+    <hyperlink ref="B222" r:id="rId99" display="https://leetcode.com/problems/powx-n/" xr:uid="{B1BF3624-ECE5-C145-AEEF-F1F7C4D3F139}"/>
     <hyperlink ref="B172" r:id="rId100" display="https://leetcode.com/problems/climbing-stairs/" xr:uid="{057CA770-3B9E-7944-ABF6-5B4488A25418}"/>
     <hyperlink ref="B174" r:id="rId101" display="https://takeuforward.org/data-structure/dynamic-programming-frog-jump-with-k-distances-dp-4/" xr:uid="{0918A4D6-47B4-A14E-BE01-28654F6A5DCF}"/>
     <hyperlink ref="B175" r:id="rId102" display="https://leetcode.com/problems/house-robber/" xr:uid="{EBF6EB3F-DD37-A349-9470-5CC59B52FEAB}"/>
@@ -2798,15 +3102,32 @@
     <hyperlink ref="B177" r:id="rId104" display="https://takeuforward.org/data-structure/dynamic-programming-ninjas-training-dp-7/" xr:uid="{D42CE215-8C7D-ED4E-A2BB-E8777F5FD8C3}"/>
     <hyperlink ref="B178" r:id="rId105" display="https://leetcode.com/problems/minimum-path-sum/" xr:uid="{3953042F-03ED-B047-9EE0-03AA3A7DB314}"/>
     <hyperlink ref="B179" r:id="rId106" display="https://leetcode.com/problems/triangle/" xr:uid="{5564E700-DD6A-414D-91BC-05C2E40644D2}"/>
-    <hyperlink ref="B187" r:id="rId107" display="https://takeuforward.org/data-structure/3-d-dp-ninja-and-his-friends-dp-13/" xr:uid="{01E3FD1F-2189-D542-BE9C-E402B9EDA818}"/>
+    <hyperlink ref="B209" r:id="rId107" display="https://takeuforward.org/data-structure/3-d-dp-ninja-and-his-friends-dp-13/" xr:uid="{01E3FD1F-2189-D542-BE9C-E402B9EDA818}"/>
     <hyperlink ref="B180" r:id="rId108" display="https://takeuforward.org/data-structure/subset-sum-equal-to-target-dp-14/" xr:uid="{B1085595-E8D0-CD4C-8C43-0ACC134C2ED1}"/>
-    <hyperlink ref="B188" r:id="rId109" display="https://leetcode.com/problems/partition-array-into-two-arrays-to-minimize-sum-difference/" xr:uid="{7326E2D0-69E4-A946-91E3-E08649CA6F08}"/>
+    <hyperlink ref="B210" r:id="rId109" display="https://leetcode.com/problems/partition-array-into-two-arrays-to-minimize-sum-difference/" xr:uid="{7326E2D0-69E4-A946-91E3-E08649CA6F08}"/>
     <hyperlink ref="B181" r:id="rId110" display="https://takeuforward.org/data-structure/count-subsets-with-sum-k-dp-17/" xr:uid="{F340A545-6F81-104C-8506-06A161FF1E33}"/>
     <hyperlink ref="B182" r:id="rId111" display="https://leetcode.com/problems/coin-change/" xr:uid="{5EF1E557-2F54-8842-8F17-F1A5724D7749}"/>
     <hyperlink ref="B183" r:id="rId112" display="https://leetcode.com/problems/target-sum/" xr:uid="{3D3BC65B-ACE4-3340-BFFA-6D615906E6CD}"/>
     <hyperlink ref="B184" r:id="rId113" display="https://leetcode.com/problems/coin-change-ii/" xr:uid="{B358F8AE-F0B2-2743-9FE4-013B11C5345E}"/>
     <hyperlink ref="B185" r:id="rId114" display="https://takeuforward.org/data-structure/unbounded-knapsack-dp-23/" xr:uid="{51D4AF01-9208-2E4A-991C-F3C2E04F9490}"/>
-    <hyperlink ref="B209" r:id="rId115" display="https://takeuforward.org/arrays/search-element-in-rotated-sorted-array-ii/" xr:uid="{74A670C9-F84D-7D49-9001-0EB8A8F9634F}"/>
+    <hyperlink ref="B227" r:id="rId115" display="https://takeuforward.org/arrays/search-element-in-rotated-sorted-array-ii/" xr:uid="{74A670C9-F84D-7D49-9001-0EB8A8F9634F}"/>
+    <hyperlink ref="B187" r:id="rId116" display="https://leetcode.com/problems/longest-common-subsequence/" xr:uid="{7E6A07ED-4C28-6244-B513-76BD9D7F4E0A}"/>
+    <hyperlink ref="B188" r:id="rId117" display="https://takeuforward.org/data-structure/print-longest-common-subsequence-dp-26/" xr:uid="{CF93157C-11E2-D74E-A641-DE6EAD4562BB}"/>
+    <hyperlink ref="B211" r:id="rId118" display="https://leetcode.com/problems/shortest-common-supersequence/" xr:uid="{EECD39AF-AA18-8845-AA54-D5700C23AB2E}"/>
+    <hyperlink ref="B212" r:id="rId119" display="https://leetcode.com/problems/distinct-subsequences/" xr:uid="{DB6C5451-F5ED-5046-AC05-4FECCB2FF1FB}"/>
+    <hyperlink ref="B189" r:id="rId120" display="https://leetcode.com/problems/edit-distance/" xr:uid="{483F8289-8C72-AD4F-8B5B-99DEF9691833}"/>
+    <hyperlink ref="B192" r:id="rId121" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{F0BA665F-2430-BC45-A300-B97938046E00}"/>
+    <hyperlink ref="B213" r:id="rId122" display="https://leetcode.com/problems/wildcard-matching/" xr:uid="{641E15B5-B534-7847-861E-67FACAA4E9CE}"/>
+    <hyperlink ref="B196" r:id="rId123" display="https://takeuforward.org/data-structure/longest-increasing-subsequence-dp-41/" xr:uid="{C845D059-B30B-6F4D-9474-0A5F86344C45}"/>
+    <hyperlink ref="B197" r:id="rId124" display="https://takeuforward.org/data-structure/printing-longest-increasing-subsequence-dp-42/" xr:uid="{57190B56-80FA-DE4D-879B-E498294425DA}"/>
+    <hyperlink ref="B198" r:id="rId125" display="https://leetcode.com/problems/largest-divisible-subset/" xr:uid="{A1C30366-C5DC-EB49-B19C-932C518AB2E0}"/>
+    <hyperlink ref="B199" r:id="rId126" display="https://leetcode.com/problems/longest-string-chain/" xr:uid="{D5A9B786-CC0B-6E41-BC2F-7CBF97BB86B8}"/>
+    <hyperlink ref="B200" r:id="rId127" display="https://leetcode.com/problems/number-of-longest-increasing-subsequence/" xr:uid="{7EEA7D81-8CA0-C14D-9F96-7ED69F8BE37E}"/>
+    <hyperlink ref="B201" r:id="rId128" display="https://takeuforward.org/dynamic-programming/matrix-chain-multiplication-dp-48/" xr:uid="{8889C40A-0F43-8A4E-8C5A-7E8A6220A003}"/>
+    <hyperlink ref="B214" r:id="rId129" display="https://takeuforward.org/data-structure/minimum-cost-to-cut-the-stick-dp-50/" xr:uid="{0D145E16-72A5-6449-9DD3-F768D63510D8}"/>
+    <hyperlink ref="B215" r:id="rId130" display="https://takeuforward.org/data-structure/burst-balloons-partition-dp-dp-51/" xr:uid="{34E83F17-537A-E54F-BB32-02C4284E5C12}"/>
+    <hyperlink ref="B216" r:id="rId131" display="https://takeuforward.org/data-structure/evaluate-boolean-expression-to-true-partition-dp-dp-52/" xr:uid="{6B42B5A1-9D62-9D47-9918-0C74BE7D6B22}"/>
+    <hyperlink ref="B217" r:id="rId132" display="https://takeuforward.org/data-structure/palindrome-partitioning-ii-front-partition-dp-53/" xr:uid="{EAC028E6-F921-B048-B422-5EE07A99C4AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
